--- a/data/sisor-dados/base_orcam_receita_investimento.xlsx
+++ b/data/sisor-dados/base_orcam_receita_investimento.xlsx
@@ -685,17 +685,17 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2 1 2 4</t>
+          <t>2 2 1 99</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>KFW</t>
+          <t>OUTRAS</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>350000000</v>
+        <v>2600000000</v>
       </c>
       <c r="L5" t="n">
-        <v>350000000</v>
+        <v>2600000000</v>
       </c>
       <c r="M5" t="n">
-        <v>350000000</v>
+        <v>2600000000</v>
       </c>
       <c r="N5" t="n">
         <v>2026</v>
@@ -793,17 +793,17 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
       <c r="G7" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2 2 1 99</t>
+          <t>2 1 2 4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>OUTRAS</t>
+          <t>KFW</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2600000000</v>
+        <v>350000000</v>
       </c>
       <c r="L7" t="n">
-        <v>2600000000</v>
+        <v>350000000</v>
       </c>
       <c r="M7" t="n">
-        <v>2600000000</v>
+        <v>350000000</v>
       </c>
       <c r="N7" t="n">
         <v>2026</v>
